--- a/Other dataset/Other Dataset/data dictionary Other Datasets Removed.xlsx
+++ b/Other dataset/Other Dataset/data dictionary Other Datasets Removed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\Year 4 work\Applied-Data-Science-Coursework\Applied-Data-Science-Coursework\Other dataset\Unedited &amp; Testing\UKDA-6411-spss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\Year 4 work\Applied-Data-Science-Coursework\Applied-Data-Science-Coursework\Other dataset\Other Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F54B1C-DAB6-4D28-A934-E948E8EF66D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1CEA7A-3AEA-4335-B1D8-DF4800F17EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="How_to_use_the_DataDict" sheetId="2" r:id="rId1"/>
@@ -8818,9 +8818,9 @@
   <dimension ref="A1:M979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A962" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J980" sqref="J980:J1462"/>
+      <selection pane="bottomLeft" activeCell="L576" sqref="L576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Other dataset/Other Dataset/data dictionary Other Datasets Removed.xlsx
+++ b/Other dataset/Other Dataset/data dictionary Other Datasets Removed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\Year 4 work\Applied-Data-Science-Coursework\Applied-Data-Science-Coursework\Other dataset\Other Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896B1F4D-F5C0-49A9-A885-B2E835B7B635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C57B83B-A825-4F71-8809-3C755CE878C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="How_to_use_the_DataDict" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9036" uniqueCount="2636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9081" uniqueCount="2663">
   <si>
     <t>licence_position_of_dataset</t>
   </si>
@@ -7946,6 +7946,87 @@
   </si>
   <si>
     <t>Aesthetic fixes</t>
+  </si>
+  <si>
+    <t>451.027</t>
+  </si>
+  <si>
+    <t>Strengths and Difficulties Questionnaire (SDQ) - Conduct</t>
+  </si>
+  <si>
+    <t>mcs4_cm_teacher_survey.sav</t>
+  </si>
+  <si>
+    <t>DQ2182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4 TS Often fights with other children or bullies them  </t>
+  </si>
+  <si>
+    <t>451.028</t>
+  </si>
+  <si>
+    <t>Strengths and Difficulties Questionnaire (SDQ) - Emotional</t>
+  </si>
+  <si>
+    <t>DQ2183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4 TS Is often unhappy, down-hearted or tearful </t>
+  </si>
+  <si>
+    <t>451.034</t>
+  </si>
+  <si>
+    <t>Strengths and Difficulties Questionnaire (SDQ) - Peer Problems</t>
+  </si>
+  <si>
+    <t>DQ2189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4 TS Is picked on or bullied by other children </t>
+  </si>
+  <si>
+    <t>451.075</t>
+  </si>
+  <si>
+    <t>DQ2340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4 TS Mental illness / depression   </t>
+  </si>
+  <si>
+    <t>403.005</t>
+  </si>
+  <si>
+    <t>FCIN</t>
+  </si>
+  <si>
+    <t>Marital status</t>
+  </si>
+  <si>
+    <t>mcs4_parent_interview.sav</t>
+  </si>
+  <si>
+    <t>DPFCIN00</t>
+  </si>
+  <si>
+    <t>Current legal marital status</t>
+  </si>
+  <si>
+    <t>Parent/Carer Web questionnaire (CAWI)</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>mcs7_parent_interview.sav</t>
+  </si>
+  <si>
+    <t>GPFCIN00</t>
+  </si>
+  <si>
+    <t>What is your current legal marital status?</t>
   </si>
 </sst>
 </file>
@@ -8028,7 +8109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8050,6 +8131,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8081,7 +8168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -8129,11 +8216,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF800080"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF800080"/>
@@ -8792,12 +8906,12 @@
   <sheetPr>
     <tabColor rgb="FF800080"/>
   </sheetPr>
-  <dimension ref="A1:M975"/>
+  <dimension ref="A1:M981"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M573" sqref="M573:M574"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40205,7 +40319,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="961" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B961" t="s">
         <v>2623</v>
       </c>
@@ -40240,7 +40354,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="962" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B962" t="s">
         <v>2623</v>
       </c>
@@ -40275,7 +40389,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="963" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B963" t="s">
         <v>2623</v>
       </c>
@@ -40310,7 +40424,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="964" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B964" t="s">
         <v>2623</v>
       </c>
@@ -40345,7 +40459,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="965" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B965" t="s">
         <v>2623</v>
       </c>
@@ -40380,7 +40494,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="966" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B966" t="s">
         <v>2623</v>
       </c>
@@ -40415,7 +40529,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="967" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H967" t="s">
         <v>2627</v>
       </c>
@@ -40435,7 +40549,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="968" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H968" t="s">
         <v>2627</v>
       </c>
@@ -40455,7 +40569,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="969" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H969" t="s">
         <v>2627</v>
       </c>
@@ -40475,7 +40589,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="970" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H970" t="s">
         <v>2627</v>
       </c>
@@ -40495,7 +40609,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="971" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C971" t="s">
         <v>2366</v>
       </c>
@@ -40527,7 +40641,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="972" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C972" t="s">
         <v>2366</v>
       </c>
@@ -40559,7 +40673,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="973" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C973" t="s">
         <v>2366</v>
       </c>
@@ -40591,7 +40705,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="974" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F974" t="s">
         <v>2364</v>
       </c>
@@ -40614,7 +40728,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="975" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F975" t="s">
         <v>2364</v>
       </c>
@@ -40637,16 +40751,212 @@
         <v>2631</v>
       </c>
     </row>
+    <row r="976" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A976" s="17" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B976" s="17"/>
+      <c r="C976" s="17"/>
+      <c r="D976" s="17" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E976" s="17"/>
+      <c r="F976" s="17"/>
+      <c r="G976" s="17"/>
+      <c r="H976" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="I976" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="J976" s="17" t="s">
+        <v>2638</v>
+      </c>
+      <c r="K976" s="17">
+        <v>28</v>
+      </c>
+      <c r="L976" s="17" t="s">
+        <v>2639</v>
+      </c>
+      <c r="M976" s="17" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="977" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A977" s="17" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B977" s="17"/>
+      <c r="C977" s="17"/>
+      <c r="D977" s="17" t="s">
+        <v>2642</v>
+      </c>
+      <c r="E977" s="17"/>
+      <c r="F977" s="17"/>
+      <c r="G977" s="17"/>
+      <c r="H977" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="I977" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="J977" s="17" t="s">
+        <v>2638</v>
+      </c>
+      <c r="K977" s="17">
+        <v>29</v>
+      </c>
+      <c r="L977" s="17" t="s">
+        <v>2643</v>
+      </c>
+      <c r="M977" s="17" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="978" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A978" s="17" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B978" s="17"/>
+      <c r="C978" s="17"/>
+      <c r="D978" s="17" t="s">
+        <v>2646</v>
+      </c>
+      <c r="E978" s="17"/>
+      <c r="F978" s="17"/>
+      <c r="G978" s="17"/>
+      <c r="H978" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="I978" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="J978" s="17" t="s">
+        <v>2638</v>
+      </c>
+      <c r="K978" s="17">
+        <v>35</v>
+      </c>
+      <c r="L978" s="17" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M978" s="17" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="979" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A979" s="17" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B979" s="17"/>
+      <c r="C979" s="17"/>
+      <c r="D979" s="17"/>
+      <c r="E979" s="17"/>
+      <c r="F979" s="17"/>
+      <c r="G979" s="17"/>
+      <c r="H979" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="I979" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="J979" s="17" t="s">
+        <v>2638</v>
+      </c>
+      <c r="K979" s="17">
+        <v>76</v>
+      </c>
+      <c r="L979" s="17" t="s">
+        <v>2650</v>
+      </c>
+      <c r="M979" s="17" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="980" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A980" s="17" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B980" s="17" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C980" s="17"/>
+      <c r="D980" s="17"/>
+      <c r="E980" s="17"/>
+      <c r="F980" s="17"/>
+      <c r="G980" s="17" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H980" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="I980" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="J980" s="17" t="s">
+        <v>2655</v>
+      </c>
+      <c r="K980" s="17">
+        <v>5</v>
+      </c>
+      <c r="L980" s="17" t="s">
+        <v>2656</v>
+      </c>
+      <c r="M980" s="17" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="981" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B981" s="17" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C981" s="17" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D981" s="17" t="s">
+        <v>2353</v>
+      </c>
+      <c r="E981" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="F981" s="17" t="s">
+        <v>2659</v>
+      </c>
+      <c r="G981" s="17"/>
+      <c r="H981" s="17" t="s">
+        <v>2627</v>
+      </c>
+      <c r="I981" s="17" t="s">
+        <v>2349</v>
+      </c>
+      <c r="J981" s="17" t="s">
+        <v>2660</v>
+      </c>
+      <c r="K981" s="17">
+        <v>6</v>
+      </c>
+      <c r="L981" s="17" t="s">
+        <v>2661</v>
+      </c>
+      <c r="M981" s="17" t="s">
+        <v>2662</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M975" xr:uid="{5523B1EF-CE65-4914-A146-D4C17EFE8749}"/>
-  <conditionalFormatting sqref="L1:L186 L976:L1048576 M187:M975">
-    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="MCSID">
+  <conditionalFormatting sqref="L1:L186 L982:L1048576 M187:M975">
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="MCSID">
       <formula>NOT(ISERROR(SEARCH("MCSID",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L187">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="MCSID">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="MCSID">
       <formula>NOT(ISERROR(SEARCH("MCSID",L187)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M981 L976:L980">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="MCSID">
+      <formula>NOT(ISERROR(SEARCH("MCSID",L976)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
